--- a/biology/Zoologie/Calospila_satyroides/Calospila_satyroides.xlsx
+++ b/biology/Zoologie/Calospila_satyroides/Calospila_satyroides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calospila satyroides est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Calospila.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calospila satyroides a été décrit par Percy Ireland Lathy en 1932 sous le nom de Nymula satyroides[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calospila satyroides a été décrit par Percy Ireland Lathy en 1932 sous le nom de Nymula satyroides.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Calospila satyroides est un papillon au dessus marron clair marqué d'une ligne submarginale de gros ocelles noirs finement et de marques marron rous en lignes qui lui sont parallèles. Le revers est identique.
 </t>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,13 +617,85 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calospila satyroides n'est présent qu'en Guyana[1].
-Biotope
-Il réside dans la forêt tropicale.
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calospila satyroides n'est présent qu'en Guyana.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Calospila_satyroides</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calospila_satyroides</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Calospila_satyroides</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calospila_satyroides</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
